--- a/JS.xlsx
+++ b/JS.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C15EF748-06E6-45AB-85EF-79D18351EF52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CA266-11D7-440C-BE70-A8D18CB5CFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -540,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BG4" sqref="BG4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/JS.xlsx
+++ b/JS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CA266-11D7-440C-BE70-A8D18CB5CFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DF85C-9FEB-4EB8-9D04-68F048D9B68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="75">
   <si>
     <t>江苏</t>
   </si>
@@ -208,6 +208,48 @@
   </si>
   <si>
     <t>仪真县</t>
+  </si>
+  <si>
+    <t>太仓直隶州</t>
+  </si>
+  <si>
+    <t>松江府</t>
+  </si>
+  <si>
+    <t>镇洋县</t>
+  </si>
+  <si>
+    <t>嘉定县</t>
+  </si>
+  <si>
+    <t>宝山县</t>
+  </si>
+  <si>
+    <t>崇明县</t>
+  </si>
+  <si>
+    <t>华亭县</t>
+  </si>
+  <si>
+    <t>金山县</t>
+  </si>
+  <si>
+    <t>娄县</t>
+  </si>
+  <si>
+    <t>奉贤县</t>
+  </si>
+  <si>
+    <t>南汇县</t>
+  </si>
+  <si>
+    <t>川沙厅</t>
+  </si>
+  <si>
+    <t>上海县</t>
+  </si>
+  <si>
+    <t>青浦县</t>
   </si>
 </sst>
 </file>
@@ -217,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +267,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +292,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7B30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5C9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -258,11 +317,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,21 +607,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH550"/>
+  <dimension ref="A1:BV550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+    </row>
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="C2" t="s">
         <v>1</v>
@@ -586,8 +664,26 @@
       <c r="BC2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BI2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+    </row>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -739,8 +835,46 @@
       <c r="BH3" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>0</v>
@@ -919,63 +1053,105 @@
       <c r="BH4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BI4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BU4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1368</v>
       </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1369</v>
       </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1370</v>
       </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1371</v>
       </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1372</v>
       </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1373</v>
       </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1374</v>
       </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1375</v>
       </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1376</v>
       </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1377</v>
       </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1378</v>
       </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1379</v>
       </c>
